--- a/Trabajo Final Pensiones Fernando.xlsx
+++ b/Trabajo Final Pensiones Fernando.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hca\Desktop\plan-de-pensiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="14183" tabRatio="854" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14190" tabRatio="854" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Preguntas" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Hipótesis Actuariales" sheetId="5" r:id="rId8"/>
     <sheet name="Impuestos y Cargas Sociales" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -483,11 +483,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -970,11 +970,11 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1004,18 +1004,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1108,8 +1108,8 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1142,9 +1142,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1162,7 +1162,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1180,7 +1180,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1199,6 +1199,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1212,7 +1213,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1224,7 +1225,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1593,7 +1594,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1605,7 +1606,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2112998480"/>
@@ -1652,7 +1653,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1664,7 +1665,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2112995152"/>
@@ -1703,9 +1704,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr u="sng"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1719,7 +1720,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1756,6 +1757,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1781,7 +1783,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2370,7 +2372,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2096172464"/>
@@ -2429,7 +2431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2096169216"/>
@@ -2470,7 +2472,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3896,26 +3898,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="115" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="2.796875" customWidth="1"/>
-    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -3923,17 +3925,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D5" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -3941,27 +3943,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D9" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D10" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D11" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>38</v>
       </c>
@@ -3969,12 +3971,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D14" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D15" s="65" t="s">
         <v>58</v>
       </c>
@@ -3994,7 +3996,7 @@
       <c r="R15" s="64"/>
       <c r="S15" s="64"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -4012,7 +4014,7 @@
       <c r="R16" s="64"/>
       <c r="S16" s="64"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -4037,7 +4039,7 @@
       <c r="S18" s="64"/>
       <c r="T18" s="64"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -4057,7 +4059,7 @@
       <c r="S19" s="64"/>
       <c r="T19" s="64"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>101</v>
       </c>
@@ -4075,26 +4077,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.46484375" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
@@ -4102,7 +4104,7 @@
         <v>43062</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4132,7 +4134,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4161,7 +4163,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>+A3+1</f>
         <v>2</v>
@@ -4207,7 +4209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ref="A5:A68" si="4">+A4+1</f>
         <v>3</v>
@@ -4253,7 +4255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -4303,7 +4305,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -4349,7 +4351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -4399,7 +4401,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -4445,7 +4447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -4491,7 +4493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -4537,7 +4539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -4583,7 +4585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -4632,7 +4634,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4678,7 +4680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -4727,7 +4729,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -4748,7 +4750,7 @@
         <v>31</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="0"/>
+        <f>YEAR($H$1)-YEAR(B16)</f>
         <v>60</v>
       </c>
       <c r="I16">
@@ -4776,7 +4778,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -4825,7 +4827,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -4874,7 +4876,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -4923,7 +4925,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -4972,7 +4974,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -5021,7 +5023,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -5067,7 +5069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -5113,7 +5115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -5159,7 +5161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -5205,7 +5207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -5251,7 +5253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -5297,7 +5299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -5343,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -5389,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -5435,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -5481,7 +5483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -5527,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -5573,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -5619,7 +5621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -5657,7 +5659,7 @@
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -5695,7 +5697,7 @@
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -5733,7 +5735,7 @@
       </c>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -5771,7 +5773,7 @@
       </c>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -5809,7 +5811,7 @@
       </c>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -5847,7 +5849,7 @@
       </c>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -5877,7 +5879,7 @@
       </c>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -5907,7 +5909,7 @@
       </c>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -5937,7 +5939,7 @@
       </c>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -5967,7 +5969,7 @@
       </c>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -5997,7 +5999,7 @@
       </c>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -6027,7 +6029,7 @@
       </c>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -6057,7 +6059,7 @@
       </c>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -6087,7 +6089,7 @@
       </c>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -6117,7 +6119,7 @@
       </c>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -6147,7 +6149,7 @@
       </c>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -6174,7 +6176,7 @@
       </c>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -6201,7 +6203,7 @@
       </c>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -6228,7 +6230,7 @@
       </c>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -6255,7 +6257,7 @@
       </c>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -6282,7 +6284,7 @@
       </c>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -6309,7 +6311,7 @@
       </c>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -6336,7 +6338,7 @@
       </c>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -6363,7 +6365,7 @@
       </c>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -6390,7 +6392,7 @@
       </c>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -6417,7 +6419,7 @@
       </c>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -6444,7 +6446,7 @@
       </c>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -6471,7 +6473,7 @@
       </c>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -6498,7 +6500,7 @@
       </c>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -6525,7 +6527,7 @@
       </c>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -6552,7 +6554,7 @@
       </c>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -6579,7 +6581,7 @@
       </c>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -6606,7 +6608,7 @@
       </c>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -6633,7 +6635,7 @@
       </c>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" ref="A69:A132" si="11">+A68+1</f>
         <v>67</v>
@@ -6660,7 +6662,7 @@
       </c>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="11"/>
         <v>68</v>
@@ -6687,7 +6689,7 @@
       </c>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="11"/>
         <v>69</v>
@@ -6714,7 +6716,7 @@
       </c>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="11"/>
         <v>70</v>
@@ -6741,7 +6743,7 @@
       </c>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="11"/>
         <v>71</v>
@@ -6768,7 +6770,7 @@
       </c>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="11"/>
         <v>72</v>
@@ -6794,7 +6796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="11"/>
         <v>73</v>
@@ -6820,7 +6822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="11"/>
         <v>74</v>
@@ -6846,7 +6848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="11"/>
         <v>75</v>
@@ -6872,7 +6874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="11"/>
         <v>76</v>
@@ -6898,7 +6900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="11"/>
         <v>77</v>
@@ -6924,7 +6926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="11"/>
         <v>78</v>
@@ -6950,7 +6952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="11"/>
         <v>79</v>
@@ -6976,7 +6978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="11"/>
         <v>80</v>
@@ -7002,7 +7004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="11"/>
         <v>81</v>
@@ -7028,7 +7030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="11"/>
         <v>82</v>
@@ -7054,7 +7056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="11"/>
         <v>83</v>
@@ -7080,7 +7082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="11"/>
         <v>84</v>
@@ -7106,7 +7108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="11"/>
         <v>85</v>
@@ -7132,7 +7134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="11"/>
         <v>86</v>
@@ -7158,7 +7160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="11"/>
         <v>87</v>
@@ -7184,7 +7186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="11"/>
         <v>88</v>
@@ -7210,7 +7212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="11"/>
         <v>89</v>
@@ -7236,7 +7238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="11"/>
         <v>90</v>
@@ -7262,7 +7264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="11"/>
         <v>91</v>
@@ -7288,7 +7290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="11"/>
         <v>92</v>
@@ -7314,7 +7316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="11"/>
         <v>93</v>
@@ -7340,7 +7342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="11"/>
         <v>94</v>
@@ -7366,7 +7368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="11"/>
         <v>95</v>
@@ -7392,7 +7394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="11"/>
         <v>96</v>
@@ -7418,7 +7420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="11"/>
         <v>97</v>
@@ -7444,7 +7446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="11"/>
         <v>98</v>
@@ -7470,7 +7472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="11"/>
         <v>99</v>
@@ -7496,7 +7498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="11"/>
         <v>100</v>
@@ -7522,7 +7524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="11"/>
         <v>101</v>
@@ -7548,7 +7550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="11"/>
         <v>102</v>
@@ -7574,7 +7576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="11"/>
         <v>103</v>
@@ -7600,7 +7602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="11"/>
         <v>104</v>
@@ -7626,7 +7628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="11"/>
         <v>105</v>
@@ -7652,7 +7654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="11"/>
         <v>106</v>
@@ -7678,7 +7680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="11"/>
         <v>107</v>
@@ -7704,7 +7706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="11"/>
         <v>108</v>
@@ -7730,7 +7732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="11"/>
         <v>109</v>
@@ -7756,7 +7758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="11"/>
         <v>110</v>
@@ -7782,7 +7784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="11"/>
         <v>111</v>
@@ -7808,7 +7810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="11"/>
         <v>112</v>
@@ -7834,7 +7836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="11"/>
         <v>113</v>
@@ -7860,7 +7862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="11"/>
         <v>114</v>
@@ -7886,7 +7888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="11"/>
         <v>115</v>
@@ -7912,7 +7914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="11"/>
         <v>116</v>
@@ -7938,7 +7940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="11"/>
         <v>117</v>
@@ -7964,7 +7966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="11"/>
         <v>118</v>
@@ -7990,7 +7992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="11"/>
         <v>119</v>
@@ -8016,7 +8018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="11"/>
         <v>120</v>
@@ -8042,7 +8044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="11"/>
         <v>121</v>
@@ -8068,7 +8070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="11"/>
         <v>122</v>
@@ -8094,7 +8096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="11"/>
         <v>123</v>
@@ -8120,7 +8122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="11"/>
         <v>124</v>
@@ -8146,7 +8148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="11"/>
         <v>125</v>
@@ -8172,7 +8174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="11"/>
         <v>126</v>
@@ -8198,7 +8200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="11"/>
         <v>127</v>
@@ -8224,7 +8226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="11"/>
         <v>128</v>
@@ -8250,7 +8252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="11"/>
         <v>129</v>
@@ -8276,7 +8278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="11"/>
         <v>130</v>
@@ -8302,7 +8304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" ref="A133:A166" si="16">+A132+1</f>
         <v>131</v>
@@ -8328,7 +8330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="16"/>
         <v>132</v>
@@ -8354,7 +8356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="16"/>
         <v>133</v>
@@ -8380,7 +8382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="16"/>
         <v>134</v>
@@ -8406,7 +8408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="16"/>
         <v>135</v>
@@ -8432,7 +8434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="16"/>
         <v>136</v>
@@ -8458,7 +8460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="16"/>
         <v>137</v>
@@ -8484,7 +8486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="16"/>
         <v>138</v>
@@ -8510,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="16"/>
         <v>139</v>
@@ -8536,7 +8538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="16"/>
         <v>140</v>
@@ -8562,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="16"/>
         <v>141</v>
@@ -8588,7 +8590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="16"/>
         <v>142</v>
@@ -8614,7 +8616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="16"/>
         <v>143</v>
@@ -8640,7 +8642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="16"/>
         <v>144</v>
@@ -8666,7 +8668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="16"/>
         <v>145</v>
@@ -8692,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="16"/>
         <v>146</v>
@@ -8718,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="16"/>
         <v>147</v>
@@ -8744,7 +8746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="16"/>
         <v>148</v>
@@ -8770,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="16"/>
         <v>149</v>
@@ -8796,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="16"/>
         <v>150</v>
@@ -8822,7 +8824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="16"/>
         <v>151</v>
@@ -8848,7 +8850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="16"/>
         <v>152</v>
@@ -8874,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="16"/>
         <v>153</v>
@@ -8900,7 +8902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="16"/>
         <v>154</v>
@@ -8926,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="16"/>
         <v>155</v>
@@ -8952,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="16"/>
         <v>156</v>
@@ -8978,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="16"/>
         <v>157</v>
@@ -9004,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="16"/>
         <v>158</v>
@@ -9030,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="16"/>
         <v>159</v>
@@ -9056,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="16"/>
         <v>160</v>
@@ -9082,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="16"/>
         <v>161</v>
@@ -9108,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="16"/>
         <v>162</v>
@@ -9134,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="16"/>
         <v>163</v>
@@ -9160,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="16"/>
         <v>164</v>
@@ -9186,7 +9188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E167" s="3"/>
       <c r="G167" s="2"/>
     </row>
@@ -9198,7 +9200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q166"/>
   <sheetViews>
@@ -9206,24 +9208,24 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.33203125" customWidth="1"/>
+    <col min="11" max="12" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9270,7 +9272,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9323,7 +9325,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>+A3+1</f>
         <v>2</v>
@@ -9370,7 +9372,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ref="A5:A68" si="4">+A4+1</f>
         <v>3</v>
@@ -9417,7 +9419,7 @@
         <v>0.10879999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -9464,7 +9466,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -9511,7 +9513,7 @@
         <v>0.1792</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -9558,7 +9560,7 @@
         <v>0.21360000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -9605,7 +9607,7 @@
         <v>0.23519999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9652,7 +9654,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -9699,7 +9701,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -9746,7 +9748,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -9793,7 +9795,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -9828,7 +9830,7 @@
         <v>23742.502400000005</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -9863,7 +9865,7 @@
         <v>51512.206399999995</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -9898,7 +9900,7 @@
         <v>11539.988000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -9933,7 +9935,7 @@
         <v>25387.966399999998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -9968,7 +9970,7 @@
         <v>14450.407999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -10003,7 +10005,7 @@
         <v>8016.848</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -10038,7 +10040,7 @@
         <v>15178.192800000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -10073,7 +10075,7 @@
         <v>8183.348</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -10108,7 +10110,7 @@
         <v>26093.398400000002</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -10143,7 +10145,7 @@
         <v>9980.4680000000008</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -10178,7 +10180,7 @@
         <v>4735.4212800000005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -10213,7 +10215,7 @@
         <v>26600.542399999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -10248,7 +10250,7 @@
         <v>6520.8679999999977</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -10283,7 +10285,7 @@
         <v>16658.128800000002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -10318,7 +10320,7 @@
         <v>5865.9335999999985</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -10353,7 +10355,7 @@
         <v>14295.067999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -10388,7 +10390,7 @@
         <v>5512.9219200000007</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -10423,7 +10425,7 @@
         <v>6841.9880000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -10458,7 +10460,7 @@
         <v>7391.4379999999983</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -10493,7 +10495,7 @@
         <v>5845.4006399999998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -10528,7 +10530,7 @@
         <v>7059.7880000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -10563,7 +10565,7 @@
         <v>15882.448799999998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -10598,7 +10600,7 @@
         <v>5715.7819199999994</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -10633,7 +10635,7 @@
         <v>5288.3294400000004</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -10668,7 +10670,7 @@
         <v>16079.824799999997</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -10703,7 +10705,7 @@
         <v>26605.132400000002</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -10738,7 +10740,7 @@
         <v>19785.1368</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -10773,7 +10775,7 @@
         <v>6551.2880000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -10808,7 +10810,7 @@
         <v>8593.387999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -10843,7 +10845,7 @@
         <v>8293.507999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -10878,7 +10880,7 @@
         <v>5525.5521599999993</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -10913,7 +10915,7 @@
         <v>14387.407999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -10948,7 +10950,7 @@
         <v>3817.4356799999996</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -10983,7 +10985,7 @@
         <v>8086.3279999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -11018,7 +11020,7 @@
         <v>19438.3848</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -11053,7 +11055,7 @@
         <v>15239.728800000001</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -11088,7 +11090,7 @@
         <v>52361.152400000006</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -11123,7 +11125,7 @@
         <v>43776.7304</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -11158,7 +11160,7 @@
         <v>75178.042400000006</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -11193,7 +11195,7 @@
         <v>7903.0880000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -11228,7 +11230,7 @@
         <v>27876.868400000003</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -11263,7 +11265,7 @@
         <v>12535.658000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -11298,7 +11300,7 @@
         <v>6360.9379999999983</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -11333,7 +11335,7 @@
         <v>4364.8401599999997</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -11368,7 +11370,7 @@
         <v>24744.346400000002</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -11403,7 +11405,7 @@
         <v>44984.614400000006</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -11438,7 +11440,7 @@
         <v>65062.9064</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -11473,7 +11475,7 @@
         <v>37229.860400000005</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -11508,7 +11510,7 @@
         <v>5940.8683200000005</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -11543,7 +11545,7 @@
         <v>14509.178</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -11578,7 +11580,7 @@
         <v>24601.954400000002</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -11613,7 +11615,7 @@
         <v>45415.054400000001</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -11648,7 +11650,7 @@
         <v>12333.608</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -11683,7 +11685,7 @@
         <v>10157.227999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -11718,7 +11720,7 @@
         <v>5157.4406400000007</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" ref="A69:A132" si="12">+A68+1</f>
         <v>67</v>
@@ -11753,7 +11755,7 @@
         <v>24951.406400000003</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="12"/>
         <v>68</v>
@@ -11788,7 +11790,7 @@
         <v>6820.9280000000017</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="12"/>
         <v>69</v>
@@ -11823,7 +11825,7 @@
         <v>8629.387999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="12"/>
         <v>70</v>
@@ -11858,7 +11860,7 @@
         <v>5556.1752000000015</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="12"/>
         <v>71</v>
@@ -11893,7 +11895,7 @@
         <v>5657.7816000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="12"/>
         <v>72</v>
@@ -11928,7 +11930,7 @@
         <v>4550.4835199999998</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="12"/>
         <v>73</v>
@@ -11963,7 +11965,7 @@
         <v>13336.567999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="12"/>
         <v>74</v>
@@ -11998,7 +12000,7 @@
         <v>31883.734400000001</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="12"/>
         <v>75</v>
@@ -12033,7 +12035,7 @@
         <v>10287.367999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="12"/>
         <v>76</v>
@@ -12068,7 +12070,7 @@
         <v>7093.268</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="12"/>
         <v>77</v>
@@ -12103,7 +12105,7 @@
         <v>8443.5380000000005</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="12"/>
         <v>78</v>
@@ -12138,7 +12140,7 @@
         <v>7067.5279999999993</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="12"/>
         <v>79</v>
@@ -12173,7 +12175,7 @@
         <v>26682.5504</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="12"/>
         <v>80</v>
@@ -12208,7 +12210,7 @@
         <v>8079.848</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="12"/>
         <v>81</v>
@@ -12243,7 +12245,7 @@
         <v>7562.1679999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="12"/>
         <v>82</v>
@@ -12278,7 +12280,7 @@
         <v>7289.8279999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="12"/>
         <v>83</v>
@@ -12313,7 +12315,7 @@
         <v>7570.6279999999988</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="12"/>
         <v>84</v>
@@ -12348,7 +12350,7 @@
         <v>14972.767999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="12"/>
         <v>85</v>
@@ -12383,7 +12385,7 @@
         <v>9369.8179999999993</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="12"/>
         <v>86</v>
@@ -12418,7 +12420,7 @@
         <v>6545.6179999999977</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="12"/>
         <v>87</v>
@@ -12453,7 +12455,7 @@
         <v>6636.1580000000013</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="12"/>
         <v>88</v>
@@ -12488,7 +12490,7 @@
         <v>5447.6539200000007</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="12"/>
         <v>89</v>
@@ -12523,7 +12525,7 @@
         <v>7157.9779999999992</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="12"/>
         <v>90</v>
@@ -12558,7 +12560,7 @@
         <v>7046.1979999999994</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="12"/>
         <v>91</v>
@@ -12593,7 +12595,7 @@
         <v>6689.7079999999987</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="12"/>
         <v>92</v>
@@ -12628,7 +12630,7 @@
         <v>6779.348</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="12"/>
         <v>93</v>
@@ -12663,7 +12665,7 @@
         <v>5785.848</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="12"/>
         <v>94</v>
@@ -12698,7 +12700,7 @@
         <v>3953.7575999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="12"/>
         <v>95</v>
@@ -12733,7 +12735,7 @@
         <v>6836.4080000000013</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="12"/>
         <v>96</v>
@@ -12768,7 +12770,7 @@
         <v>52989.064400000003</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="12"/>
         <v>97</v>
@@ -12803,7 +12805,7 @@
         <v>9406.9880000000012</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="12"/>
         <v>98</v>
@@ -12838,7 +12840,7 @@
         <v>5711.124960000001</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="12"/>
         <v>99</v>
@@ -12873,7 +12875,7 @@
         <v>8698.1479999999992</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="12"/>
         <v>100</v>
@@ -12908,7 +12910,7 @@
         <v>4453.4635199999993</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="12"/>
         <v>101</v>
@@ -12943,7 +12945,7 @@
         <v>19589.584800000001</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="12"/>
         <v>102</v>
@@ -12978,7 +12980,7 @@
         <v>4244.4647999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="12"/>
         <v>103</v>
@@ -13013,7 +13015,7 @@
         <v>3846.2947200000008</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="12"/>
         <v>104</v>
@@ -13048,7 +13050,7 @@
         <v>14366.617999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="12"/>
         <v>105</v>
@@ -13083,7 +13085,7 @@
         <v>11903.047999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="12"/>
         <v>106</v>
@@ -13118,7 +13120,7 @@
         <v>8617.9579999999987</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="12"/>
         <v>107</v>
@@ -13153,7 +13155,7 @@
         <v>7376.4080000000013</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="12"/>
         <v>108</v>
@@ -13188,7 +13190,7 @@
         <v>4571.43984</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="12"/>
         <v>109</v>
@@ -13223,7 +13225,7 @@
         <v>5432.62464</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="12"/>
         <v>110</v>
@@ -13258,7 +13260,7 @@
         <v>4351.0809600000002</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="12"/>
         <v>111</v>
@@ -13293,7 +13295,7 @@
         <v>13213.627999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="12"/>
         <v>112</v>
@@ -13328,7 +13330,7 @@
         <v>37126.126400000001</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="12"/>
         <v>113</v>
@@ -13363,7 +13365,7 @@
         <v>11592.637999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="12"/>
         <v>114</v>
@@ -13398,7 +13400,7 @@
         <v>6056.5161599999992</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="12"/>
         <v>115</v>
@@ -13433,7 +13435,7 @@
         <v>5979.1824000000015</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="12"/>
         <v>116</v>
@@ -13468,7 +13470,7 @@
         <v>83032.171499999997</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="12"/>
         <v>117</v>
@@ -13503,7 +13505,7 @@
         <v>7015.9579999999987</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="12"/>
         <v>118</v>
@@ -13538,7 +13540,7 @@
         <v>44992.876399999994</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="12"/>
         <v>119</v>
@@ -13573,7 +13575,7 @@
         <v>5386.3372799999997</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="12"/>
         <v>120</v>
@@ -13608,7 +13610,7 @@
         <v>36688.4444</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="12"/>
         <v>121</v>
@@ -13643,7 +13645,7 @@
         <v>5074.2503999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="12"/>
         <v>122</v>
@@ -13678,7 +13680,7 @@
         <v>17023.120799999997</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="12"/>
         <v>123</v>
@@ -13713,7 +13715,7 @@
         <v>6559.5680000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="12"/>
         <v>124</v>
@@ -13748,7 +13750,7 @@
         <v>5970.6446400000004</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="12"/>
         <v>125</v>
@@ -13783,7 +13785,7 @@
         <v>30314.464400000001</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="12"/>
         <v>126</v>
@@ -13818,7 +13820,7 @@
         <v>4306.3459200000007</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="12"/>
         <v>127</v>
@@ -13853,7 +13855,7 @@
         <v>23164.162400000001</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="12"/>
         <v>128</v>
@@ -13888,7 +13890,7 @@
         <v>7644.9679999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="12"/>
         <v>129</v>
@@ -13923,7 +13925,7 @@
         <v>7694.8279999999995</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="12"/>
         <v>130</v>
@@ -13958,7 +13960,7 @@
         <v>25708.756400000002</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" ref="A133:A166" si="20">+A132+1</f>
         <v>131</v>
@@ -13993,7 +13995,7 @@
         <v>5904.9532800000015</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="20"/>
         <v>132</v>
@@ -14028,7 +14030,7 @@
         <v>32495.1224</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="20"/>
         <v>133</v>
@@ -14063,7 +14065,7 @@
         <v>3515.0155199999999</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="20"/>
         <v>134</v>
@@ -14098,7 +14100,7 @@
         <v>39540.364400000006</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="20"/>
         <v>135</v>
@@ -14133,7 +14135,7 @@
         <v>6634.268</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="20"/>
         <v>136</v>
@@ -14168,7 +14170,7 @@
         <v>23164.162400000001</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="20"/>
         <v>137</v>
@@ -14203,7 +14205,7 @@
         <v>46975.144400000005</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="20"/>
         <v>138</v>
@@ -14238,7 +14240,7 @@
         <v>16827.664799999999</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="20"/>
         <v>139</v>
@@ -14273,7 +14275,7 @@
         <v>8223.9379999999983</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="20"/>
         <v>140</v>
@@ -14308,7 +14310,7 @@
         <v>4307.7571199999993</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="20"/>
         <v>141</v>
@@ -14343,7 +14345,7 @@
         <v>3202.5031040000003</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="20"/>
         <v>142</v>
@@ -14378,7 +14380,7 @@
         <v>4695.5548800000006</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="20"/>
         <v>143</v>
@@ -14413,7 +14415,7 @@
         <v>6919.1179999999977</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="20"/>
         <v>144</v>
@@ -14448,7 +14450,7 @@
         <v>26695.3004</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="20"/>
         <v>145</v>
@@ -14483,7 +14485,7 @@
         <v>3962.8598400000001</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="20"/>
         <v>146</v>
@@ -14518,7 +14520,7 @@
         <v>4666.5547200000001</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="20"/>
         <v>147</v>
@@ -14553,7 +14555,7 @@
         <v>4824.6796799999993</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="20"/>
         <v>148</v>
@@ -14588,7 +14590,7 @@
         <v>5822.8214399999997</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="20"/>
         <v>149</v>
@@ -14623,7 +14625,7 @@
         <v>4346.7062400000004</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="20"/>
         <v>150</v>
@@ -14658,7 +14660,7 @@
         <v>8088.3979999999992</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="20"/>
         <v>151</v>
@@ -14693,7 +14695,7 @@
         <v>47861.728400000007</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="20"/>
         <v>152</v>
@@ -14728,7 +14730,7 @@
         <v>23434.258399999999</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="20"/>
         <v>153</v>
@@ -14763,7 +14765,7 @@
         <v>34262.782399999996</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="20"/>
         <v>154</v>
@@ -14798,7 +14800,7 @@
         <v>5929.2964799999991</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="20"/>
         <v>155</v>
@@ -14833,7 +14835,7 @@
         <v>7074.8180000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="20"/>
         <v>156</v>
@@ -14868,7 +14870,7 @@
         <v>3734.2454400000001</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="20"/>
         <v>157</v>
@@ -14903,7 +14905,7 @@
         <v>2910.1701440000002</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="20"/>
         <v>158</v>
@@ -14938,7 +14940,7 @@
         <v>46444.234400000001</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="20"/>
         <v>159</v>
@@ -14973,7 +14975,7 @@
         <v>18074.704799999996</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="20"/>
         <v>160</v>
@@ -15008,7 +15010,7 @@
         <v>21964.234400000001</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="20"/>
         <v>161</v>
@@ -15043,7 +15045,7 @@
         <v>46104.268400000001</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="20"/>
         <v>162</v>
@@ -15078,7 +15080,7 @@
         <v>6820.9280000000017</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="20"/>
         <v>163</v>
@@ -15113,7 +15115,7 @@
         <v>13195.897999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="20"/>
         <v>164</v>
@@ -15154,7 +15156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AE187"/>
   <sheetViews>
@@ -15162,28 +15164,28 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.1328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.46484375" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.46484375" customWidth="1"/>
-    <col min="15" max="15" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.796875" customWidth="1"/>
-    <col min="17" max="17" width="15.796875" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
         <v>74</v>
       </c>
@@ -15194,7 +15196,7 @@
       <c r="E2" s="69"/>
       <c r="F2" s="70"/>
     </row>
-    <row r="3" spans="2:8" ht="20.65" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="67"/>
       <c r="C3" s="39" t="s">
         <v>43</v>
@@ -15209,7 +15211,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>78</v>
       </c>
@@ -15226,7 +15228,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
         <v>79</v>
       </c>
@@ -15243,7 +15245,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="44" t="s">
         <v>80</v>
       </c>
@@ -15260,7 +15262,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="44" t="s">
         <v>81</v>
       </c>
@@ -15277,7 +15279,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
         <v>82</v>
       </c>
@@ -15294,7 +15296,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="44" t="s">
         <v>84</v>
       </c>
@@ -15311,7 +15313,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="42" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
         <v>77</v>
       </c>
@@ -15328,25 +15330,25 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>99</v>
       </c>
@@ -15355,12 +15357,12 @@
         <v>2001.0000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
         <v>119</v>
       </c>
@@ -15374,7 +15376,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="G20">
         <f>(80.04*0.4)*30</f>
         <v>960.48000000000013</v>
@@ -15412,7 +15414,7 @@
         <v>102923.14200000004</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>34</v>
       </c>
@@ -15432,7 +15434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
         <v>0</v>
       </c>
@@ -15494,7 +15496,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -15578,7 +15580,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>+A23+1</f>
         <v>2</v>
@@ -15663,7 +15665,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" ref="A25:A88" si="14">+A24+1</f>
         <v>3</v>
@@ -15748,7 +15750,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="14"/>
         <v>4</v>
@@ -15833,7 +15835,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="14"/>
         <v>5</v>
@@ -15918,7 +15920,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="14"/>
         <v>6</v>
@@ -16003,7 +16005,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="14"/>
         <v>7</v>
@@ -16088,7 +16090,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="14"/>
         <v>8</v>
@@ -16173,7 +16175,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="14"/>
         <v>9</v>
@@ -16258,7 +16260,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="14"/>
         <v>10</v>
@@ -16343,7 +16345,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -16422,7 +16424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="14"/>
         <v>12</v>
@@ -16501,7 +16503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="14"/>
         <v>13</v>
@@ -16583,7 +16585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="14"/>
         <v>14</v>
@@ -16665,7 +16667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -16750,7 +16752,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="14"/>
         <v>16</v>
@@ -16838,7 +16840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="14"/>
         <v>17</v>
@@ -16923,7 +16925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="14"/>
         <v>18</v>
@@ -17008,7 +17010,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="14"/>
         <v>19</v>
@@ -17093,7 +17095,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="14"/>
         <v>20</v>
@@ -17178,7 +17180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="14"/>
         <v>21</v>
@@ -17257,7 +17259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="14"/>
         <v>22</v>
@@ -17339,7 +17341,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="14"/>
         <v>23</v>
@@ -17424,7 +17426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="14"/>
         <v>24</v>
@@ -17509,7 +17511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="14"/>
         <v>25</v>
@@ -17594,7 +17596,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="14"/>
         <v>26</v>
@@ -17673,7 +17675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="14"/>
         <v>27</v>
@@ -17758,7 +17760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="14"/>
         <v>28</v>
@@ -17837,7 +17839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="14"/>
         <v>29</v>
@@ -17916,7 +17918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="14"/>
         <v>30</v>
@@ -17995,7 +17997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="14"/>
         <v>31</v>
@@ -18074,7 +18076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="14"/>
         <v>32</v>
@@ -18153,7 +18155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="14"/>
         <v>33</v>
@@ -18232,7 +18234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="14"/>
         <v>34</v>
@@ -18311,7 +18313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="14"/>
         <v>35</v>
@@ -18390,7 +18392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="14"/>
         <v>36</v>
@@ -18469,7 +18471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="14"/>
         <v>37</v>
@@ -18548,7 +18550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="14"/>
         <v>38</v>
@@ -18627,7 +18629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="14"/>
         <v>39</v>
@@ -18706,7 +18708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="14"/>
         <v>40</v>
@@ -18785,7 +18787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="14"/>
         <v>41</v>
@@ -18864,7 +18866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="14"/>
         <v>42</v>
@@ -18943,7 +18945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="14"/>
         <v>43</v>
@@ -19010,7 +19012,7 @@
         <v>602.2170000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="14"/>
         <v>44</v>
@@ -19083,7 +19085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="14"/>
         <v>45</v>
@@ -19150,7 +19152,7 @@
         <v>392.18099999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="14"/>
         <v>46</v>
@@ -19223,7 +19225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="14"/>
         <v>47</v>
@@ -19290,7 +19292,7 @@
         <v>630.27600000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="14"/>
         <v>48</v>
@@ -19363,7 +19365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="14"/>
         <v>49</v>
@@ -19430,7 +19432,7 @@
         <v>1481.5439999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="14"/>
         <v>50</v>
@@ -19497,7 +19499,7 @@
         <v>2405.1120000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="14"/>
         <v>51</v>
@@ -19564,7 +19566,7 @@
         <v>386.07300000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="14"/>
         <v>52</v>
@@ -19631,7 +19633,7 @@
         <v>1013.9010000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -19698,7 +19700,7 @@
         <v>540.49200000000008</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="14"/>
         <v>54</v>
@@ -19765,7 +19767,7 @@
         <v>334.66799999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -19832,7 +19834,7 @@
         <v>251.81099999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="14"/>
         <v>56</v>
@@ -19899,7 +19901,7 @@
         <v>921.76800000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="14"/>
         <v>57</v>
@@ -19966,7 +19968,7 @@
         <v>1517.07</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="14"/>
         <v>58</v>
@@ -20033,7 +20035,7 @@
         <v>2107.6079999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="14"/>
         <v>59</v>
@@ -20100,7 +20102,7 @@
         <v>1288.989</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="14"/>
         <v>60</v>
@@ -20167,7 +20169,7 @@
         <v>318.81900000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="14"/>
         <v>61</v>
@@ -20234,7 +20236,7 @@
         <v>606.27600000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="14"/>
         <v>62</v>
@@ -20301,7 +20303,7 @@
         <v>917.58</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="14"/>
         <v>63</v>
@@ -20368,7 +20370,7 @@
         <v>1529.73</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="14"/>
         <v>64</v>
@@ -20435,7 +20437,7 @@
         <v>533.75700000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="14"/>
         <v>65</v>
@@ -20502,7 +20504,7 @@
         <v>461.21100000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="14"/>
         <v>66</v>
@@ -20569,7 +20571,7 @@
         <v>285.51</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" ref="A89:A152" si="34">+A88+1</f>
         <v>67</v>
@@ -20636,7 +20638,7 @@
         <v>927.85800000000006</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="34"/>
         <v>68</v>
@@ -20703,7 +20705,7 @@
         <v>350.00100000000009</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="34"/>
         <v>69</v>
@@ -20770,7 +20772,7 @@
         <v>410.28299999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="34"/>
         <v>70</v>
@@ -20837,7 +20839,7 @@
         <v>302.46300000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="34"/>
         <v>71</v>
@@ -20904,7 +20906,7 @@
         <v>306.78300000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="34"/>
         <v>72</v>
@@ -20971,7 +20973,7 @@
         <v>259.70400000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="34"/>
         <v>73</v>
@@ -21038,7 +21040,7 @@
         <v>567.18900000000008</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="34"/>
         <v>74</v>
@@ -21105,7 +21107,7 @@
         <v>1131.75</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="34"/>
         <v>75</v>
@@ -21172,7 +21174,7 @@
         <v>465.54899999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="34"/>
         <v>76</v>
@@ -21239,7 +21241,7 @@
         <v>359.07900000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="34"/>
         <v>77</v>
@@ -21306,7 +21308,7 @@
         <v>404.08800000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="34"/>
         <v>78</v>
@@ -21373,7 +21375,7 @@
         <v>358.221</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="34"/>
         <v>79</v>
@@ -21440,7 +21442,7 @@
         <v>978.774</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="34"/>
         <v>80</v>
@@ -21507,7 +21509,7 @@
         <v>391.96500000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="34"/>
         <v>81</v>
@@ -21574,7 +21576,7 @@
         <v>374.709</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="34"/>
         <v>82</v>
@@ -21641,7 +21643,7 @@
         <v>365.63099999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="34"/>
         <v>83</v>
@@ -21708,7 +21710,7 @@
         <v>374.99099999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="34"/>
         <v>84</v>
@@ -21775,7 +21777,7 @@
         <v>621.72899999999993</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="34"/>
         <v>85</v>
@@ -21842,7 +21844,7 @@
         <v>434.964</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="34"/>
         <v>86</v>
@@ -21909,7 +21911,7 @@
         <v>340.82399999999996</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="34"/>
         <v>87</v>
@@ -21976,7 +21978,7 @@
         <v>343.84200000000004</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="34"/>
         <v>88</v>
@@ -22043,7 +22045,7 @@
         <v>297.84900000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="34"/>
         <v>89</v>
@@ -22110,7 +22112,7 @@
         <v>361.23599999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="34"/>
         <v>90</v>
@@ -22177,7 +22179,7 @@
         <v>357.51</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="34"/>
         <v>91</v>
@@ -22244,7 +22246,7 @@
         <v>345.62699999999995</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="34"/>
         <v>92</v>
@@ -22311,7 +22313,7 @@
         <v>348.61500000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="34"/>
         <v>93</v>
@@ -22378,7 +22380,7 @@
         <v>312.22800000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="34"/>
         <v>94</v>
@@ -22445,7 +22447,7 @@
         <v>234.333</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="34"/>
         <v>95</v>
@@ -22512,7 +22514,7 @@
         <v>350.51700000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="34"/>
         <v>96</v>
@@ -22579,7 +22581,7 @@
         <v>1752.4950000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="34"/>
         <v>97</v>
@@ -22646,7 +22648,7 @@
         <v>436.20300000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="34"/>
         <v>98</v>
@@ -22713,7 +22715,7 @@
         <v>309.05100000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="34"/>
         <v>99</v>
@@ -22780,7 +22782,7 @@
         <v>412.57499999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="34"/>
         <v>100</v>
@@ -22847,7 +22849,7 @@
         <v>255.57899999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="34"/>
         <v>101</v>
@@ -22914,7 +22916,7 @@
         <v>766.20900000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="34"/>
         <v>102</v>
@@ -22981,7 +22983,7 @@
         <v>246.69300000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="34"/>
         <v>103</v>
@@ -23048,7 +23050,7 @@
         <v>229.76400000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="34"/>
         <v>104</v>
@@ -23115,7 +23117,7 @@
         <v>601.524</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="34"/>
         <v>105</v>
@@ -23182,7 +23184,7 @@
         <v>519.40499999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="34"/>
         <v>106</v>
@@ -23249,7 +23251,7 @@
         <v>409.90199999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="34"/>
         <v>107</v>
@@ -23316,7 +23318,7 @@
         <v>368.51700000000005</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="34"/>
         <v>108</v>
@@ -23383,7 +23385,7 @@
         <v>260.59500000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="34"/>
         <v>109</v>
@@ -23450,7 +23452,7 @@
         <v>297.20999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="34"/>
         <v>110</v>
@@ -23517,7 +23519,7 @@
         <v>251.226</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="34"/>
         <v>111</v>
@@ -23584,7 +23586,7 @@
         <v>563.09100000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="34"/>
         <v>112</v>
@@ -23651,7 +23653,7 @@
         <v>1285.9380000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="34"/>
         <v>113</v>
@@ -23718,7 +23720,7 @@
         <v>509.05799999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="34"/>
         <v>114</v>
@@ -23785,7 +23787,7 @@
         <v>323.73599999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="34"/>
         <v>115</v>
@@ -23852,7 +23854,7 @@
         <v>320.44800000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="34"/>
         <v>116</v>
@@ -23919,7 +23921,7 @@
         <v>2632.2270000000003</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="34"/>
         <v>117</v>
@@ -23986,7 +23988,7 @@
         <v>356.50199999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="34"/>
         <v>118</v>
@@ -24053,7 +24055,7 @@
         <v>1517.3129999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="34"/>
         <v>119</v>
@@ -24120,7 +24122,7 @@
         <v>295.24200000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="34"/>
         <v>120</v>
@@ -24187,7 +24189,7 @@
         <v>1273.0650000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="34"/>
         <v>121</v>
@@ -24254,7 +24256,7 @@
         <v>281.97300000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="34"/>
         <v>122</v>
@@ -24321,7 +24323,7 @@
         <v>686.00699999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="34"/>
         <v>123</v>
@@ -24388,7 +24390,7 @@
         <v>341.28900000000004</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="34"/>
         <v>124</v>
@@ -24455,7 +24457,7 @@
         <v>320.08499999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="34"/>
         <v>125</v>
@@ -24522,7 +24524,7 @@
         <v>1085.595</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="34"/>
         <v>126</v>
@@ -24589,7 +24591,7 @@
         <v>249.32400000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="34"/>
         <v>127</v>
@@ -24656,7 +24658,7 @@
         <v>875.29200000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="34"/>
         <v>128</v>
@@ -24723,7 +24725,7 @@
         <v>377.46899999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="34"/>
         <v>129</v>
@@ -24790,7 +24792,7 @@
         <v>379.13099999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="34"/>
         <v>130</v>
@@ -24857,7 +24859,7 @@
         <v>950.13300000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" ref="A153:A186" si="54">+A152+1</f>
         <v>131</v>
@@ -24924,7 +24926,7 @@
         <v>317.29200000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="54"/>
         <v>132</v>
@@ -24991,7 +24993,7 @@
         <v>1149.732</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="54"/>
         <v>133</v>
@@ -25058,7 +25060,7 @@
         <v>215.67899999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="54"/>
         <v>134</v>
@@ -25125,7 +25127,7 @@
         <v>1356.9449999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="54"/>
         <v>135</v>
@@ -25192,7 +25194,7 @@
         <v>343.779</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="54"/>
         <v>136</v>
@@ -25259,7 +25261,7 @@
         <v>875.29200000000003</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="54"/>
         <v>137</v>
@@ -25326,7 +25328,7 @@
         <v>1575.615</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="54"/>
         <v>138</v>
@@ -25393,7 +25395,7 @@
         <v>679.899</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="54"/>
         <v>139</v>
@@ -25460,7 +25462,7 @@
         <v>396.76799999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="54"/>
         <v>140</v>
@@ -25527,7 +25529,7 @@
         <v>249.38399999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="54"/>
         <v>141</v>
@@ -25594,7 +25596,7 @@
         <v>201.85500000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="54"/>
         <v>142</v>
@@ -25661,7 +25663,7 @@
         <v>265.87200000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="54"/>
         <v>143</v>
@@ -25728,7 +25730,7 @@
         <v>353.27399999999994</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="54"/>
         <v>144</v>
@@ -25795,7 +25797,7 @@
         <v>979.149</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" si="54"/>
         <v>145</v>
@@ -25862,7 +25864,7 @@
         <v>234.72</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" si="54"/>
         <v>146</v>
@@ -25929,7 +25931,7 @@
         <v>264.63900000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" si="54"/>
         <v>147</v>
@@ -25996,7 +25998,7 @@
         <v>271.36199999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" si="54"/>
         <v>148</v>
@@ -26063,7 +26065,7 @@
         <v>313.8</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" si="54"/>
         <v>149</v>
@@ -26130,7 +26132,7 @@
         <v>251.04</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172">
         <f t="shared" si="54"/>
         <v>150</v>
@@ -26197,7 +26199,7 @@
         <v>392.25</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173">
         <f t="shared" si="54"/>
         <v>151</v>
@@ -26264,7 +26266,7 @@
         <v>1601.691</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174">
         <f t="shared" si="54"/>
         <v>152</v>
@@ -26331,7 +26333,7 @@
         <v>883.23599999999988</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" si="54"/>
         <v>153</v>
@@ -26398,7 +26400,7 @@
         <v>1201.722</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176">
         <f t="shared" si="54"/>
         <v>154</v>
@@ -26465,7 +26467,7 @@
         <v>318.327</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177">
         <f t="shared" si="54"/>
         <v>155</v>
@@ -26532,7 +26534,7 @@
         <v>358.464</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" si="54"/>
         <v>156</v>
@@ -26599,7 +26601,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="54"/>
         <v>157</v>
@@ -26666,7 +26668,7 @@
         <v>188.16900000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" si="54"/>
         <v>158</v>
@@ -26733,7 +26735,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" si="54"/>
         <v>159</v>
@@ -26800,7 +26802,7 @@
         <v>718.86899999999991</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="54"/>
         <v>160</v>
@@ -26867,7 +26869,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="54"/>
         <v>161</v>
@@ -26934,7 +26936,7 @@
         <v>1550.0010000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184">
         <f t="shared" si="54"/>
         <v>162</v>
@@ -27001,7 +27003,7 @@
         <v>350.00100000000009</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185">
         <f t="shared" si="54"/>
         <v>163</v>
@@ -27068,7 +27070,7 @@
         <v>562.5</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" si="54"/>
         <v>164</v>
@@ -27135,7 +27137,7 @@
         <v>2464.2030000000004</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F187" s="2">
         <f t="shared" si="47"/>
         <v>0</v>
@@ -27151,7 +27153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -27159,19 +27161,19 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -27179,7 +27181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -27190,7 +27192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D5" s="13">
         <v>0</v>
       </c>
@@ -27198,7 +27200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" s="13">
         <v>1</v>
       </c>
@@ -27206,7 +27208,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" s="13">
         <v>3</v>
       </c>
@@ -27214,7 +27216,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="13">
         <v>5</v>
       </c>
@@ -27222,12 +27224,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>49</v>
       </c>
@@ -27235,7 +27237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>51</v>
       </c>
@@ -27243,7 +27245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>53</v>
       </c>
@@ -27251,7 +27253,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -27265,32 +27267,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:S190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:F77"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.46484375" customWidth="1"/>
-    <col min="9" max="9" width="17.1328125" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -27298,7 +27300,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -27309,7 +27311,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D6" s="13">
         <v>0</v>
       </c>
@@ -27317,7 +27319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7" s="13">
         <v>1</v>
       </c>
@@ -27325,7 +27327,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" s="13">
         <v>3</v>
       </c>
@@ -27333,7 +27335,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" s="13">
         <v>5</v>
       </c>
@@ -27341,12 +27343,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -27354,7 +27356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -27365,7 +27367,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -27373,7 +27375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>55</v>
       </c>
@@ -27381,7 +27383,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>68</v>
       </c>
@@ -27389,7 +27391,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>66</v>
       </c>
@@ -27397,7 +27399,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>67</v>
       </c>
@@ -27405,15 +27407,15 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="H25" s="8" t="s">
         <v>34</v>
       </c>
@@ -27421,7 +27423,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
         <v>65</v>
       </c>
@@ -27471,7 +27473,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="16">
         <v>15</v>
       </c>
@@ -27511,7 +27513,7 @@
         <v>313718.68000000005</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="19">
         <v>16</v>
       </c>
@@ -27552,7 +27554,7 @@
         <v>512382.49333333329</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="19">
         <v>17</v>
       </c>
@@ -27593,7 +27595,7 @@
         <v>1006890.2799999998</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="19">
         <v>18</v>
       </c>
@@ -27634,7 +27636,7 @@
         <v>248834.66666666666</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="19">
         <v>19</v>
       </c>
@@ -27675,7 +27677,7 @@
         <v>551101.46666666656</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="19">
         <v>20</v>
       </c>
@@ -27716,7 +27718,7 @@
         <v>757085.70666666667</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="19">
         <v>21</v>
       </c>
@@ -27757,7 +27759,7 @@
         <v>330611.01333333337</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="19">
         <v>22</v>
       </c>
@@ -27798,7 +27800,7 @@
         <v>609642.44000000018</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="19">
         <v>23</v>
       </c>
@@ -27839,7 +27841,7 @@
         <v>299040.42666666658</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="19">
         <v>24</v>
       </c>
@@ -27880,7 +27882,7 @@
         <v>304052.02666666667</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="19">
         <v>25</v>
       </c>
@@ -27921,7 +27923,7 @@
         <v>291814.74666666664</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="19">
         <v>26</v>
       </c>
@@ -27962,7 +27964,7 @@
         <v>741602.1066666668</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="19">
         <v>27</v>
       </c>
@@ -28003,7 +28005,7 @@
         <v>1420417.0933333333</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="19">
         <v>28</v>
       </c>
@@ -28044,7 +28046,7 @@
         <v>421625.16000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="19">
         <v>29</v>
       </c>
@@ -28085,7 +28087,7 @@
         <v>781824.55999999982</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="19">
         <v>30</v>
       </c>
@@ -28126,7 +28128,7 @@
         <v>502254.57333333342</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="19">
         <v>31</v>
       </c>
@@ -28167,7 +28169,7 @@
         <v>324021.1333333333</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="19">
         <v>32</v>
       </c>
@@ -28208,7 +28210,7 @@
         <v>522231.16</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="19">
         <v>33</v>
       </c>
@@ -28249,7 +28251,7 @@
         <v>328633.79999999993</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="19">
         <v>34</v>
       </c>
@@ -28290,7 +28292,7 @@
         <v>799068.45333333337</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="19">
         <v>35</v>
       </c>
@@ -28331,7 +28333,7 @@
         <v>378420.68000000005</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="19">
         <v>36</v>
       </c>
@@ -28372,7 +28374,7 @@
         <v>222377.90666666668</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="19">
         <v>37</v>
       </c>
@@ -28413,7 +28415,7 @@
         <v>811465.30666666664</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="19">
         <v>38</v>
       </c>
@@ -28454,7 +28456,7 @@
         <v>282576.9466666666</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="19">
         <v>39</v>
       </c>
@@ -28495,7 +28497,7 @@
         <v>560668.38666666672</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="19">
         <v>40</v>
       </c>
@@ -28536,7 +28538,7 @@
         <v>262326.09333333327</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="19">
         <v>41</v>
       </c>
@@ -28577,7 +28579,7 @@
         <v>497951.08</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="19">
         <v>42</v>
       </c>
@@ -28618,7 +28620,7 @@
         <v>249851.94666666666</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="19">
         <v>43</v>
       </c>
@@ -28659,7 +28661,7 @@
         <v>291473.16000000003</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="19">
         <v>44</v>
       </c>
@@ -28700,7 +28702,7 @@
         <v>306694.95999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="19">
         <v>45</v>
       </c>
@@ -28741,7 +28743,7 @@
         <v>261600.53333333335</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="19">
         <v>46</v>
       </c>
@@ -28782,7 +28784,7 @@
         <v>297507.02666666667</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="19">
         <v>47</v>
       </c>
@@ -28823,7 +28825,7 @@
         <v>540522.2533333333</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="19">
         <v>48</v>
       </c>
@@ -28864,7 +28866,7 @@
         <v>257020.27999999994</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="19">
         <v>49</v>
       </c>
@@ -28905,7 +28907,7 @@
         <v>241915.66666666666</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="19">
         <v>50</v>
       </c>
@@ -28946,7 +28948,7 @@
         <v>545648.54666666663</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="19">
         <v>51</v>
       </c>
@@ -28987,7 +28989,7 @@
         <v>811577.5066666666</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="19">
         <v>52</v>
       </c>
@@ -29028,7 +29030,7 @@
         <v>641883.7333333334</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="19">
         <v>53</v>
       </c>
@@ -29069,7 +29071,7 @@
         <v>283419.69333333336</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="19">
         <v>54</v>
       </c>
@@ -29110,7 +29112,7 @@
         <v>339993.42666666658</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="19">
         <v>55</v>
       </c>
@@ -29151,7 +29153,7 @@
         <v>331685.64</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="19">
         <v>56</v>
       </c>
@@ -29192,7 +29194,7 @@
         <v>250298.25333333336</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="19">
         <v>57</v>
       </c>
@@ -29233,7 +29235,7 @@
         <v>500509.24000000011</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="19">
         <v>58</v>
       </c>
@@ -29274,7 +29276,7 @@
         <v>189939.63999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="19">
         <v>59</v>
       </c>
@@ -29315,7 +29317,7 @@
         <v>325945.98666666663</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="19">
         <v>60</v>
       </c>
@@ -29356,7 +29358,7 @@
         <v>632877.81333333347</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="19">
         <v>61</v>
       </c>
@@ -29397,7 +29399,7 @@
         <v>523829.38666666666</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="19">
         <v>62</v>
       </c>
@@ -29438,7 +29440,7 @@
         <v>1441169.1066666665</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="19">
         <v>63</v>
       </c>
@@ -29479,7 +29481,7 @@
         <v>1231327.6800000002</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="19">
         <v>64</v>
       </c>
@@ -29520,7 +29522,7 @@
         <v>1998915.3066666666</v>
       </c>
     </row>
-    <row r="77" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" s="22">
         <v>65</v>
       </c>
@@ -29561,7 +29563,7 @@
         <v>320869.56</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H78">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -29587,7 +29589,7 @@
         <v>842664.3866666666</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H79">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -29613,7 +29615,7 @@
         <v>449208.90666666673</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H80">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -29639,7 +29641,7 @@
         <v>278146.29333333328</v>
       </c>
     </row>
-    <row r="81" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H81">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -29665,7 +29667,7 @@
         <v>209282.91999999998</v>
       </c>
     </row>
-    <row r="82" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H82">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -29691,7 +29693,7 @@
         <v>766091.62666666671</v>
       </c>
     </row>
-    <row r="83" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H83">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -29717,7 +29719,7 @@
         <v>1260853.7333333334</v>
       </c>
     </row>
-    <row r="84" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H84">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -29743,7 +29745,7 @@
         <v>1751656.4266666665</v>
       </c>
     </row>
-    <row r="85" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H85">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -29769,7 +29771,7 @@
         <v>1071293.08</v>
       </c>
     </row>
-    <row r="86" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H86">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -29795,7 +29797,7 @@
         <v>264974.01333333337</v>
       </c>
     </row>
-    <row r="87" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H87">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -29821,7 +29823,7 @@
         <v>503882.72</v>
       </c>
     </row>
-    <row r="88" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H88">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -29847,7 +29849,7 @@
         <v>762610.93333333323</v>
       </c>
     </row>
-    <row r="89" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H89">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -29873,7 +29875,7 @@
         <v>1271375.5999999999</v>
       </c>
     </row>
-    <row r="90" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H90">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -29899,7 +29901,7 @@
         <v>443611.37333333335</v>
       </c>
     </row>
-    <row r="91" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H91">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -29925,7 +29927,7 @@
         <v>383317.58666666667</v>
       </c>
     </row>
-    <row r="92" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H92">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -29951,7 +29953,7 @@
         <v>237290.53333333333</v>
       </c>
     </row>
-    <row r="93" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H93">
         <f t="shared" ref="H93:H156" si="5">+H92+1</f>
         <v>67</v>
@@ -29977,7 +29979,7 @@
         <v>771153.09333333338</v>
       </c>
     </row>
-    <row r="94" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H94">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -30003,7 +30005,7 @@
         <v>290889.72000000009</v>
       </c>
     </row>
-    <row r="95" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H95">
         <f t="shared" si="5"/>
         <v>69</v>
@@ -30029,7 +30031,7 @@
         <v>340990.75999999995</v>
       </c>
     </row>
-    <row r="96" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H96">
         <f t="shared" si="5"/>
         <v>70</v>
@@ -30055,7 +30057,7 @@
         <v>251380.36</v>
       </c>
     </row>
-    <row r="97" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H97">
         <f t="shared" si="5"/>
         <v>71</v>
@@ -30081,7 +30083,7 @@
         <v>254970.76</v>
       </c>
     </row>
-    <row r="98" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H98">
         <f t="shared" si="5"/>
         <v>72</v>
@@ -30107,7 +30109,7 @@
         <v>215842.87999999995</v>
       </c>
     </row>
-    <row r="99" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H99">
         <f t="shared" si="5"/>
         <v>73</v>
@@ -30133,7 +30135,7 @@
         <v>471397.08</v>
       </c>
     </row>
-    <row r="100" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H100">
         <f t="shared" si="5"/>
         <v>74</v>
@@ -30159,7 +30161,7 @@
         <v>940610</v>
       </c>
     </row>
-    <row r="101" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H101">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -30185,7 +30187,7 @@
         <v>386922.9466666666</v>
       </c>
     </row>
-    <row r="102" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H102">
         <f t="shared" si="5"/>
         <v>76</v>
@@ -30211,7 +30213,7 @@
         <v>298434.54666666669</v>
       </c>
     </row>
-    <row r="103" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H103">
         <f t="shared" si="5"/>
         <v>77</v>
@@ -30237,7 +30239,7 @@
         <v>335842.02666666661</v>
       </c>
     </row>
-    <row r="104" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H104">
         <f t="shared" si="5"/>
         <v>78</v>
@@ -30263,7 +30265,7 @@
         <v>297721.45333333331</v>
       </c>
     </row>
-    <row r="105" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H105">
         <f t="shared" si="5"/>
         <v>79</v>
@@ -30289,7 +30291,7 @@
         <v>813469.94666666677</v>
       </c>
     </row>
-    <row r="106" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H106">
         <f t="shared" si="5"/>
         <v>80</v>
@@ -30315,7 +30317,7 @@
         <v>325766.46666666662</v>
       </c>
     </row>
-    <row r="107" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H107">
         <f t="shared" si="5"/>
         <v>81</v>
@@ -30341,7 +30343,7 @@
         <v>311424.81333333335</v>
       </c>
     </row>
-    <row r="108" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H108">
         <f t="shared" si="5"/>
         <v>82</v>
@@ -30367,7 +30369,7 @@
         <v>303879.98666666663</v>
       </c>
     </row>
-    <row r="109" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H109">
         <f t="shared" si="5"/>
         <v>83</v>
@@ -30393,7 +30395,7 @@
         <v>311659.18666666665</v>
       </c>
     </row>
-    <row r="110" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H110">
         <f t="shared" si="5"/>
         <v>84</v>
@@ -30419,7 +30421,7 @@
         <v>516725.88</v>
       </c>
     </row>
-    <row r="111" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H111">
         <f t="shared" si="5"/>
         <v>85</v>
@@ -30445,7 +30447,7 @@
         <v>361503.41333333333</v>
       </c>
     </row>
-    <row r="112" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H112">
         <f t="shared" si="5"/>
         <v>86</v>
@@ -30471,7 +30473,7 @@
         <v>283262.61333333328</v>
       </c>
     </row>
-    <row r="113" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H113">
         <f t="shared" si="5"/>
         <v>87</v>
@@ -30497,7 +30499,7 @@
         <v>285770.90666666673</v>
       </c>
     </row>
-    <row r="114" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H114">
         <f t="shared" si="5"/>
         <v>88</v>
@@ -30523,7 +30525,7 @@
         <v>247545.61333333334</v>
       </c>
     </row>
-    <row r="115" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H115">
         <f t="shared" si="5"/>
         <v>89</v>
@@ -30549,7 +30551,7 @@
         <v>300227.25333333336</v>
       </c>
     </row>
-    <row r="116" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H116">
         <f t="shared" si="5"/>
         <v>90</v>
@@ -30575,7 +30577,7 @@
         <v>297130.53333333333</v>
       </c>
     </row>
-    <row r="117" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H117">
         <f t="shared" si="5"/>
         <v>91</v>
@@ -30601,7 +30603,7 @@
         <v>287254.44</v>
       </c>
     </row>
-    <row r="118" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H118">
         <f t="shared" si="5"/>
         <v>92</v>
@@ -30627,7 +30629,7 @@
         <v>289737.8</v>
       </c>
     </row>
-    <row r="119" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H119">
         <f t="shared" si="5"/>
         <v>93</v>
@@ -30653,7 +30655,7 @@
         <v>259496.15999999997</v>
       </c>
     </row>
-    <row r="120" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H120">
         <f t="shared" si="5"/>
         <v>94</v>
@@ -30679,7 +30681,7 @@
         <v>194756.76</v>
       </c>
     </row>
-    <row r="121" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H121">
         <f t="shared" si="5"/>
         <v>95</v>
@@ -30705,7 +30707,7 @@
         <v>291318.57333333342</v>
       </c>
     </row>
-    <row r="122" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H122">
         <f t="shared" si="5"/>
         <v>96</v>
@@ -30731,7 +30733,7 @@
         <v>1456518.0666666669</v>
       </c>
     </row>
-    <row r="123" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H123">
         <f t="shared" si="5"/>
         <v>97</v>
@@ -30757,7 +30759,7 @@
         <v>362533.16000000003</v>
       </c>
     </row>
-    <row r="124" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H124">
         <f t="shared" si="5"/>
         <v>98</v>
@@ -30783,7 +30785,7 @@
         <v>256855.72000000006</v>
       </c>
     </row>
-    <row r="125" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H125">
         <f t="shared" si="5"/>
         <v>99</v>
@@ -30809,7 +30811,7 @@
         <v>342895.66666666669</v>
       </c>
     </row>
-    <row r="126" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H126">
         <f t="shared" si="5"/>
         <v>100</v>
@@ -30835,7 +30837,7 @@
         <v>212414.54666666663</v>
       </c>
     </row>
-    <row r="127" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H127">
         <f t="shared" si="5"/>
         <v>101</v>
@@ -30861,7 +30863,7 @@
         <v>636804.81333333347</v>
       </c>
     </row>
-    <row r="128" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H128">
         <f t="shared" si="5"/>
         <v>102</v>
@@ -30887,7 +30889,7 @@
         <v>205029.29333333333</v>
       </c>
     </row>
-    <row r="129" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H129">
         <f t="shared" si="5"/>
         <v>103</v>
@@ -30913,7 +30915,7 @@
         <v>190959.41333333336</v>
       </c>
     </row>
-    <row r="130" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H130">
         <f t="shared" si="5"/>
         <v>104</v>
@@ -30939,7 +30941,7 @@
         <v>499933.28</v>
       </c>
     </row>
-    <row r="131" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H131">
         <f t="shared" si="5"/>
         <v>105</v>
@@ -30965,7 +30967,7 @@
         <v>431683.26666666672</v>
       </c>
     </row>
-    <row r="132" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H132">
         <f t="shared" si="5"/>
         <v>106</v>
@@ -30991,7 +30993,7 @@
         <v>340674.10666666663</v>
       </c>
     </row>
-    <row r="133" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H133">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -31017,7 +31019,7 @@
         <v>306278.57333333342</v>
       </c>
     </row>
-    <row r="134" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H134">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -31043,7 +31045,7 @@
         <v>216583.39999999997</v>
       </c>
     </row>
-    <row r="135" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H135">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -31069,7 +31071,7 @@
         <v>247014.53333333335</v>
       </c>
     </row>
-    <row r="136" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H136">
         <f t="shared" si="5"/>
         <v>110</v>
@@ -31095,7 +31097,7 @@
         <v>208796.71999999997</v>
       </c>
     </row>
-    <row r="137" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H137">
         <f t="shared" si="5"/>
         <v>111</v>
@@ -31121,7 +31123,7 @@
         <v>467991.18666666665</v>
       </c>
     </row>
-    <row r="138" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H138">
         <f t="shared" si="5"/>
         <v>112</v>
@@ -31147,7 +31149,7 @@
         <v>1068757.3600000001</v>
       </c>
     </row>
-    <row r="139" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H139">
         <f t="shared" si="5"/>
         <v>113</v>
@@ -31173,7 +31175,7 @@
         <v>423083.75999999995</v>
       </c>
     </row>
-    <row r="140" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H140">
         <f t="shared" si="5"/>
         <v>114</v>
@@ -31199,7 +31201,7 @@
         <v>269060.58666666667</v>
       </c>
     </row>
-    <row r="141" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H141">
         <f t="shared" si="5"/>
         <v>115</v>
@@ -31225,7 +31227,7 @@
         <v>266327.89333333337</v>
       </c>
     </row>
-    <row r="142" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H142">
         <f t="shared" si="5"/>
         <v>116</v>
@@ -31251,7 +31253,7 @@
         <v>2187673.1066666669</v>
       </c>
     </row>
-    <row r="143" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H143">
         <f t="shared" si="5"/>
         <v>117</v>
@@ -31277,7 +31279,7 @@
         <v>296292.77333333332</v>
       </c>
     </row>
-    <row r="144" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H144">
         <f t="shared" si="5"/>
         <v>118</v>
@@ -31303,7 +31305,7 @@
         <v>1261055.6933333331</v>
       </c>
     </row>
-    <row r="145" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H145">
         <f t="shared" si="5"/>
         <v>119</v>
@@ -31329,7 +31331,7 @@
         <v>245378.90666666668</v>
       </c>
     </row>
-    <row r="146" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H146">
         <f t="shared" si="5"/>
         <v>120</v>
@@ -31355,7 +31357,7 @@
         <v>1058058.4666666668</v>
       </c>
     </row>
-    <row r="147" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H147">
         <f t="shared" si="5"/>
         <v>121</v>
@@ -31381,7 +31383,7 @@
         <v>234350.89333333334</v>
       </c>
     </row>
-    <row r="148" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H148">
         <f t="shared" si="5"/>
         <v>122</v>
@@ -31407,7 +31409,7 @@
         <v>570148.03999999992</v>
       </c>
     </row>
-    <row r="149" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H149">
         <f t="shared" si="5"/>
         <v>123</v>
@@ -31433,7 +31435,7 @@
         <v>283649.07999999996</v>
       </c>
     </row>
-    <row r="150" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H150">
         <f t="shared" si="5"/>
         <v>124</v>
@@ -31459,7 +31461,7 @@
         <v>266026.2</v>
       </c>
     </row>
-    <row r="151" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H151">
         <f t="shared" si="5"/>
         <v>125</v>
@@ -31485,7 +31487,7 @@
         <v>902250.06666666677</v>
       </c>
     </row>
-    <row r="152" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H152">
         <f t="shared" si="5"/>
         <v>126</v>
@@ -31511,7 +31513,7 @@
         <v>207215.94666666666</v>
       </c>
     </row>
-    <row r="153" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H153">
         <f t="shared" si="5"/>
         <v>127</v>
@@ -31537,7 +31539,7 @@
         <v>727464.90666666662</v>
       </c>
     </row>
-    <row r="154" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H154">
         <f t="shared" si="5"/>
         <v>128</v>
@@ -31563,7 +31565,7 @@
         <v>313718.68000000005</v>
       </c>
     </row>
-    <row r="155" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H155">
         <f t="shared" si="5"/>
         <v>129</v>
@@ -31589,7 +31591,7 @@
         <v>315099.98666666663</v>
       </c>
     </row>
-    <row r="156" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H156">
         <f t="shared" si="5"/>
         <v>130</v>
@@ -31615,7 +31617,7 @@
         <v>789666.09333333338</v>
       </c>
     </row>
-    <row r="157" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H157">
         <f t="shared" ref="H157:H190" si="8">+H156+1</f>
         <v>131</v>
@@ -31641,7 +31643,7 @@
         <v>263704.90666666673</v>
       </c>
     </row>
-    <row r="158" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H158">
         <f t="shared" si="8"/>
         <v>132</v>
@@ -31667,7 +31669,7 @@
         <v>955555.04</v>
       </c>
     </row>
-    <row r="159" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H159">
         <f t="shared" si="8"/>
         <v>133</v>
@@ -31693,7 +31695,7 @@
         <v>179253.21333333329</v>
       </c>
     </row>
-    <row r="160" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H160">
         <f t="shared" si="8"/>
         <v>134</v>
@@ -31719,7 +31721,7 @@
         <v>1127772.0666666669</v>
       </c>
     </row>
-    <row r="161" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H161">
         <f t="shared" si="8"/>
         <v>135</v>
@@ -31745,7 +31747,7 @@
         <v>285718.54666666669</v>
       </c>
     </row>
-    <row r="162" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H162">
         <f t="shared" si="8"/>
         <v>136</v>
@@ -31771,7 +31773,7 @@
         <v>727464.90666666662</v>
       </c>
     </row>
-    <row r="163" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H163">
         <f t="shared" si="8"/>
         <v>137</v>
@@ -31797,7 +31799,7 @@
         <v>1309511.1333333335</v>
       </c>
     </row>
-    <row r="164" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H164">
         <f t="shared" si="8"/>
         <v>138</v>
@@ -31823,7 +31825,7 @@
         <v>565071.61333333328</v>
       </c>
     </row>
-    <row r="165" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H165">
         <f t="shared" si="8"/>
         <v>139</v>
@@ -31849,7 +31851,7 @@
         <v>329758.29333333333</v>
       </c>
     </row>
-    <row r="166" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H166">
         <f t="shared" si="8"/>
         <v>140</v>
@@ -31875,7 +31877,7 @@
         <v>207265.81333333332</v>
       </c>
     </row>
-    <row r="167" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H167">
         <f t="shared" si="8"/>
         <v>141</v>
@@ -31901,7 +31903,7 @@
         <v>167763.93333333335</v>
       </c>
     </row>
-    <row r="168" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H168">
         <f t="shared" si="8"/>
         <v>142</v>
@@ -31927,7 +31929,7 @@
         <v>220969.17333333337</v>
       </c>
     </row>
-    <row r="169" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H169">
         <f t="shared" si="8"/>
         <v>143</v>
@@ -31953,7 +31955,7 @@
         <v>293609.9466666666</v>
       </c>
     </row>
-    <row r="170" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H170">
         <f t="shared" si="8"/>
         <v>144</v>
@@ -31979,7 +31981,7 @@
         <v>813781.6133333334</v>
       </c>
     </row>
-    <row r="171" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H171">
         <f t="shared" si="8"/>
         <v>145</v>
@@ -32005,7 +32007,7 @@
         <v>195078.39999999997</v>
       </c>
     </row>
-    <row r="172" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H172">
         <f t="shared" si="8"/>
         <v>146</v>
@@ -32031,7 +32033,7 @@
         <v>219944.41333333336</v>
       </c>
     </row>
-    <row r="173" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="173" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H173">
         <f t="shared" si="8"/>
         <v>147</v>
@@ -32057,7 +32059,7 @@
         <v>225531.9733333333</v>
       </c>
     </row>
-    <row r="174" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H174">
         <f t="shared" si="8"/>
         <v>148</v>
@@ -32083,7 +32085,7 @@
         <v>260802.66666666669</v>
       </c>
     </row>
-    <row r="175" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="175" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H175">
         <f t="shared" si="8"/>
         <v>149</v>
@@ -32109,7 +32111,7 @@
         <v>208642.13333333336</v>
       </c>
     </row>
-    <row r="176" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H176">
         <f t="shared" si="8"/>
         <v>150</v>
@@ -32135,7 +32137,7 @@
         <v>326003.33333333331</v>
       </c>
     </row>
-    <row r="177" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="177" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H177">
         <f t="shared" si="8"/>
         <v>151</v>
@@ -32161,7 +32163,7 @@
         <v>1331183.1866666668</v>
       </c>
     </row>
-    <row r="178" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H178">
         <f t="shared" si="8"/>
         <v>152</v>
@@ -32187,7 +32189,7 @@
         <v>734067.2533333333</v>
       </c>
     </row>
-    <row r="179" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="179" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H179">
         <f t="shared" si="8"/>
         <v>153</v>
@@ -32213,7 +32215,7 @@
         <v>998764.5066666666</v>
       </c>
     </row>
-    <row r="180" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="180" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H180">
         <f t="shared" si="8"/>
         <v>154</v>
@@ -32239,7 +32241,7 @@
         <v>264565.10666666663</v>
       </c>
     </row>
-    <row r="181" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="181" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H181">
         <f t="shared" si="8"/>
         <v>155</v>
@@ -32265,7 +32267,7 @@
         <v>297923.41333333333</v>
       </c>
     </row>
-    <row r="182" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H182">
         <f t="shared" si="8"/>
         <v>156</v>
@@ -32291,7 +32293,7 @@
         <v>187000</v>
       </c>
     </row>
-    <row r="183" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="183" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H183">
         <f t="shared" si="8"/>
         <v>157</v>
@@ -32317,7 +32319,7 @@
         <v>156389.34666666668</v>
       </c>
     </row>
-    <row r="184" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="184" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H184">
         <f t="shared" si="8"/>
         <v>158</v>
@@ -32343,7 +32345,7 @@
         <v>1296533.3333333333</v>
       </c>
     </row>
-    <row r="185" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H185">
         <f t="shared" si="8"/>
         <v>159</v>
@@ -32369,7 +32371,7 @@
         <v>597460.01333333319</v>
       </c>
     </row>
-    <row r="186" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H186">
         <f t="shared" si="8"/>
         <v>160</v>
@@ -32395,7 +32397,7 @@
         <v>698133.33333333337</v>
       </c>
     </row>
-    <row r="187" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H187">
         <f t="shared" si="8"/>
         <v>161</v>
@@ -32421,7 +32423,7 @@
         <v>1288223.0533333335</v>
       </c>
     </row>
-    <row r="188" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H188">
         <f t="shared" si="8"/>
         <v>162</v>
@@ -32447,7 +32449,7 @@
         <v>290889.72000000009</v>
       </c>
     </row>
-    <row r="189" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="189" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H189">
         <f t="shared" si="8"/>
         <v>163</v>
@@ -32473,7 +32475,7 @@
         <v>467500</v>
       </c>
     </row>
-    <row r="190" spans="8:15" x14ac:dyDescent="0.35">
+    <row r="190" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H190">
         <f t="shared" si="8"/>
         <v>164</v>
@@ -32505,7 +32507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:N51"/>
   <sheetViews>
@@ -32513,17 +32515,17 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.46484375" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="11" customWidth="1"/>
-    <col min="10" max="10" width="17.46484375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.796875" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
@@ -32534,7 +32536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
@@ -32546,7 +32548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
@@ -32566,7 +32568,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C5" s="3">
         <v>0</v>
       </c>
@@ -32586,7 +32588,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -32606,7 +32608,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -32626,7 +32628,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -32646,7 +32648,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -32666,7 +32668,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -32686,7 +32688,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -32706,7 +32708,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -32726,7 +32728,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -32746,7 +32748,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -32760,7 +32762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -32774,7 +32776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
         <v>11</v>
       </c>
@@ -32791,7 +32793,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
         <v>12</v>
       </c>
@@ -32808,7 +32810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>13</v>
       </c>
@@ -32828,7 +32830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
         <v>14</v>
       </c>
@@ -32851,7 +32853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
         <v>15</v>
       </c>
@@ -32871,7 +32873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
         <v>16</v>
       </c>
@@ -32891,7 +32893,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
         <v>17</v>
       </c>
@@ -32911,7 +32913,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="3">
         <v>18</v>
       </c>
@@ -32931,7 +32933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="3">
         <v>19</v>
       </c>
@@ -32945,7 +32947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
         <v>20</v>
       </c>
@@ -32962,7 +32964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
         <v>21</v>
       </c>
@@ -32982,7 +32984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
         <v>22</v>
       </c>
@@ -33002,7 +33004,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="3">
         <v>23</v>
       </c>
@@ -33022,7 +33024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="3">
         <v>24</v>
       </c>
@@ -33036,7 +33038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="3">
         <v>25</v>
       </c>
@@ -33056,7 +33058,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="3">
         <v>26</v>
       </c>
@@ -33070,7 +33072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="3">
         <v>27</v>
       </c>
@@ -33084,7 +33086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C33" s="3">
         <v>28</v>
       </c>
@@ -33098,7 +33100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C34" s="3">
         <v>29</v>
       </c>
@@ -33112,7 +33114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C35" s="3">
         <v>30</v>
       </c>
@@ -33126,7 +33128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C36" s="3">
         <v>31</v>
       </c>
@@ -33140,7 +33142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C37" s="3">
         <v>32</v>
       </c>
@@ -33154,7 +33156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C38" s="3">
         <v>33</v>
       </c>
@@ -33168,7 +33170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C39" s="3">
         <v>34</v>
       </c>
@@ -33182,7 +33184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C40" s="3">
         <v>35</v>
       </c>
@@ -33196,7 +33198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C41" s="3">
         <v>36</v>
       </c>
@@ -33210,7 +33212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C42" s="3">
         <v>37</v>
       </c>
@@ -33224,7 +33226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C43" s="3">
         <v>38</v>
       </c>
@@ -33238,7 +33240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C44" s="3">
         <v>39</v>
       </c>
@@ -33252,7 +33254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C45" s="3">
         <v>40</v>
       </c>
@@ -33266,7 +33268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>22</v>
       </c>
@@ -33274,7 +33276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
         <v>23</v>
       </c>
@@ -33282,7 +33284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
         <v>24</v>
       </c>
@@ -33296,7 +33298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B3:F60"/>
   <sheetViews>
@@ -33304,13 +33306,13 @@
       <selection activeCell="A2" sqref="A2:F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -33318,7 +33320,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>66</v>
       </c>
@@ -33326,7 +33328,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>67</v>
       </c>
@@ -33334,15 +33336,15 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>65</v>
       </c>
@@ -33359,7 +33361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="16">
         <v>15</v>
       </c>
@@ -33376,7 +33378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="19">
         <v>16</v>
       </c>
@@ -33393,7 +33395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="19">
         <v>17</v>
       </c>
@@ -33410,7 +33412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="19">
         <v>18</v>
       </c>
@@ -33427,7 +33429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="19">
         <v>19</v>
       </c>
@@ -33444,7 +33446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19">
         <v>20</v>
       </c>
@@ -33461,7 +33463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="19">
         <v>21</v>
       </c>
@@ -33478,7 +33480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="19">
         <v>22</v>
       </c>
@@ -33495,7 +33497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="19">
         <v>23</v>
       </c>
@@ -33512,7 +33514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="19">
         <v>24</v>
       </c>
@@ -33529,7 +33531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="19">
         <v>25</v>
       </c>
@@ -33546,7 +33548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="19">
         <v>26</v>
       </c>
@@ -33563,7 +33565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="19">
         <v>27</v>
       </c>
@@ -33580,7 +33582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="19">
         <v>28</v>
       </c>
@@ -33597,7 +33599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="19">
         <v>29</v>
       </c>
@@ -33614,7 +33616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="19">
         <v>30</v>
       </c>
@@ -33631,7 +33633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="19">
         <v>31</v>
       </c>
@@ -33648,7 +33650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="19">
         <v>32</v>
       </c>
@@ -33665,7 +33667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="19">
         <v>33</v>
       </c>
@@ -33682,7 +33684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="19">
         <v>34</v>
       </c>
@@ -33699,7 +33701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="19">
         <v>35</v>
       </c>
@@ -33716,7 +33718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="19">
         <v>36</v>
       </c>
@@ -33733,7 +33735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="19">
         <v>37</v>
       </c>
@@ -33750,7 +33752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="19">
         <v>38</v>
       </c>
@@ -33767,7 +33769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="19">
         <v>39</v>
       </c>
@@ -33784,7 +33786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="19">
         <v>40</v>
       </c>
@@ -33801,7 +33803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="19">
         <v>41</v>
       </c>
@@ -33818,7 +33820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="19">
         <v>42</v>
       </c>
@@ -33835,7 +33837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="19">
         <v>43</v>
       </c>
@@ -33852,7 +33854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="19">
         <v>44</v>
       </c>
@@ -33869,7 +33871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="19">
         <v>45</v>
       </c>
@@ -33886,7 +33888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="19">
         <v>46</v>
       </c>
@@ -33903,7 +33905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="19">
         <v>47</v>
       </c>
@@ -33920,7 +33922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="19">
         <v>48</v>
       </c>
@@ -33937,7 +33939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="19">
         <v>49</v>
       </c>
@@ -33954,7 +33956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="19">
         <v>50</v>
       </c>
@@ -33971,7 +33973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="19">
         <v>51</v>
       </c>
@@ -33988,7 +33990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="19">
         <v>52</v>
       </c>
@@ -34005,7 +34007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="19">
         <v>53</v>
       </c>
@@ -34022,7 +34024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="19">
         <v>54</v>
       </c>
@@ -34039,7 +34041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="19">
         <v>55</v>
       </c>
@@ -34056,7 +34058,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="19">
         <v>56</v>
       </c>
@@ -34073,7 +34075,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="19">
         <v>57</v>
       </c>
@@ -34090,7 +34092,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="19">
         <v>58</v>
       </c>
@@ -34107,7 +34109,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="19">
         <v>59</v>
       </c>
@@ -34124,7 +34126,7 @@
         <v>0.10575</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="19">
         <v>60</v>
       </c>
@@ -34141,7 +34143,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="19">
         <v>61</v>
       </c>
@@ -34158,7 +34160,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="19">
         <v>62</v>
       </c>
@@ -34175,7 +34177,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="19">
         <v>63</v>
       </c>
@@ -34192,7 +34194,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="19">
         <v>64</v>
       </c>
@@ -34209,7 +34211,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="22">
         <v>65</v>
       </c>
@@ -34232,7 +34234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
@@ -34240,15 +34242,15 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="9" max="13" width="33.33203125" customWidth="1"/>
+    <col min="2" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="9" max="13" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="13.15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>73</v>
       </c>
@@ -34262,7 +34264,7 @@
       <c r="L2" s="69"/>
       <c r="M2" s="70"/>
     </row>
-    <row r="3" spans="2:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
         <v>70</v>
       </c>
@@ -34286,7 +34288,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27">
         <v>0</v>
       </c>
@@ -34312,7 +34314,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="30">
         <v>496.08</v>
       </c>
@@ -34338,7 +34340,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="32">
         <v>4210.42</v>
       </c>
@@ -34364,7 +34366,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="32">
         <v>7399.43</v>
       </c>
@@ -34390,7 +34392,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32">
         <v>8601.51</v>
       </c>
@@ -34416,7 +34418,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="32">
         <v>10298.36</v>
       </c>
@@ -34442,7 +34444,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" ht="37.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32">
         <v>20770.3</v>
       </c>
@@ -34468,7 +34470,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32">
         <v>32736.84</v>
       </c>
@@ -34479,7 +34481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32">
         <v>62500.01</v>
       </c>
@@ -34490,7 +34492,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32">
         <v>83333.34</v>
       </c>
@@ -34501,7 +34503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33">
         <v>250000</v>
       </c>
@@ -34515,22 +34517,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="I18" t="s">
         <v>97</v>
@@ -34546,12 +34548,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Lista_x0020_de_x0020_Categor_x00ed_as xmlns="9A05114E-EDEA-4799-9DBB-DF8668FB4C19" xsi:nil="true"/>
+    <Categor_x00ed_a xmlns="9A05114E-EDEA-4799-9DBB-DF8668FB4C19" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34689,18 +34691,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Lista_x0020_de_x0020_Categor_x00ed_as xmlns="9A05114E-EDEA-4799-9DBB-DF8668FB4C19" xsi:nil="true"/>
-    <Categor_x00ed_a xmlns="9A05114E-EDEA-4799-9DBB-DF8668FB4C19" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE01A233-3C64-47BB-B608-78678EDB9071}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A8B3AF5-60D2-43C4-A7F5-F0CCC7FC668C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9A05114E-EDEA-4799-9DBB-DF8668FB4C19"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34724,17 +34734,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A8B3AF5-60D2-43C4-A7F5-F0CCC7FC668C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE01A233-3C64-47BB-B608-78678EDB9071}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9A05114E-EDEA-4799-9DBB-DF8668FB4C19"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>